--- a/ch4-spreadsheets/res/charting_working.xlsx
+++ b/ch4-spreadsheets/res/charting_working.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\libraries\Documents\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills Chart" sheetId="2" r:id="rId1"/>
+    <sheet name="Bills" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +121,20 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,13 +159,14 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,6 +194,2407 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Yearly Bills</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bills!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bills!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bills!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C69-4953-8424-BE69307AF28D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bills!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bills!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bills!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C69-4953-8424-BE69307AF28D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bills!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Internet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bills!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bills!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C69-4953-8424-BE69307AF28D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bills!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electricity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bills!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bills!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9C69-4953-8424-BE69307AF28D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="546525096"/>
+        <c:axId val="546530344"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bills!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bills!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bills!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9C69-4953-8424-BE69307AF28D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="631793080"/>
+        <c:axId val="631793736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="546525096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546530344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="546530344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546525096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="631793736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631793080"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="631793080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="631793736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bills!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Heat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Electricity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bills!$N$3:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3753-471C-8073-3BA2FF82B2E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2CC569AF-5901-4ED0-96B1-E98E8C97986C}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657167" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{537ACDED-514C-4A37-9B39-11C0DA6AB9F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB99F0C-EBA4-49F5-A640-94A4E6D949EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,16 +2922,17 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="N3" activeCellId="1" sqref="A3:A6 N3:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="14" width="11" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
@@ -535,374 +2953,374 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>231</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>312</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>198</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>180</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>70</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>80</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>160</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>185</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <f t="shared" ref="N3:N6" si="0">SUM(B3:M3)</f>
         <v>1436</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="3">
         <f>AVERAGE(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>119.66666666666667</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <f>MAX(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>312</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <f>MIN(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>0</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="4">
         <f>Table1[[#This Row],[Total]]/$N$7</f>
         <v>0.28939943571140669</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>40</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>38</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>40</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>30</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>37</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>50</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>40</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>36</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>34</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>32</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>28</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <f t="shared" si="0"/>
         <v>425</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="3">
         <f>AVERAGE(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>35.416666666666664</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <f>MAX(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>50</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <f>MIN(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>20</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="4">
         <f>Table1[[#This Row],[Total]]/$N$7</f>
         <v>8.5650947198710192E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>60</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>60</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>60</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>60</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>60</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>60</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>60</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>60</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>60</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>60</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>60</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <f>AVERAGE(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>60</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <f>MAX(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>60</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <f>MIN(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>60</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="4">
         <f>Table1[[#This Row],[Total]]/$N$7</f>
         <v>0.14510278113663846</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>224</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>240</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>204</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>190</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>165</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>170</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>230</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>245</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>182</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>170</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>166</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>195</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <f t="shared" si="0"/>
         <v>2381</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3">
         <f>AVERAGE(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>198.41666666666666</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <f>MAX(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>245</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <f>MIN(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>165</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="4">
         <f>Table1[[#This Row],[Total]]/$N$7</f>
         <v>0.47984683595324468</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <f t="shared" ref="B7:N7" si="1">SUBTOTAL(109,B3:B6)</f>
         <v>555</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
         <v>502</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>332</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f t="shared" si="1"/>
         <v>418</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <f t="shared" si="1"/>
         <v>468</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <f t="shared" si="1"/>
         <v>4962</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="3">
         <f>AVERAGE(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>413.5</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <f>MAX(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>650</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <f>MIN(Table1[[#This Row],[Jan]:[Dec]])</f>
         <v>278</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="4">
         <f>Table1[[#This Row],[Total]]/$N$7</f>
         <v>1</v>
       </c>
@@ -913,8 +3331,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>